--- a/temp_demands/今天20171127试听课前具体信息.xlsx
+++ b/temp_demands/今天20171127试听课前具体信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="313">
   <si>
     <t>试听ID</t>
   </si>
@@ -73,43 +73,103 @@
     <t>课后回访记录</t>
   </si>
   <si>
-    <t>ST-18253</t>
-  </si>
-  <si>
     <t>ST-18263</t>
   </si>
   <si>
+    <t>ST-17485</t>
+  </si>
+  <si>
+    <t>ST-17409</t>
+  </si>
+  <si>
+    <t>ST-18480</t>
+  </si>
+  <si>
+    <t>ST-18402</t>
+  </si>
+  <si>
+    <t>ST-17916</t>
+  </si>
+  <si>
+    <t>ST-18413</t>
+  </si>
+  <si>
+    <t>ST-18126</t>
+  </si>
+  <si>
+    <t>ST-18080</t>
+  </si>
+  <si>
+    <t>ST-18354</t>
+  </si>
+  <si>
+    <t>ST-18193</t>
+  </si>
+  <si>
+    <t>ST-18224</t>
+  </si>
+  <si>
+    <t>ST-18243</t>
+  </si>
+  <si>
+    <t>ST-18233</t>
+  </si>
+  <si>
+    <t>ST-18286</t>
+  </si>
+  <si>
+    <t>ST-18304</t>
+  </si>
+  <si>
+    <t>ST-18240</t>
+  </si>
+  <si>
+    <t>ST-18242</t>
+  </si>
+  <si>
+    <t>ST-18436</t>
+  </si>
+  <si>
+    <t>ST-18519</t>
+  </si>
+  <si>
+    <t>ST-18551</t>
+  </si>
+  <si>
+    <t>ST-18604</t>
+  </si>
+  <si>
+    <t>ST-18355</t>
+  </si>
+  <si>
+    <t>ST-18476</t>
+  </si>
+  <si>
+    <t>ST-18236</t>
+  </si>
+  <si>
+    <t>ST-18367</t>
+  </si>
+  <si>
+    <t>ST-18215</t>
+  </si>
+  <si>
+    <t>ST-18245</t>
+  </si>
+  <si>
+    <t>ST-18284</t>
+  </si>
+  <si>
+    <t>ST-18365</t>
+  </si>
+  <si>
     <t>ST-18217</t>
   </si>
   <si>
-    <t>ST-17485</t>
-  </si>
-  <si>
-    <t>ST-18355</t>
-  </si>
-  <si>
-    <t>ST-17409</t>
-  </si>
-  <si>
-    <t>ST-18480</t>
-  </si>
-  <si>
-    <t>ST-18402</t>
-  </si>
-  <si>
-    <t>ST-17663</t>
-  </si>
-  <si>
-    <t>ST-17774</t>
-  </si>
-  <si>
-    <t>ST-17916</t>
-  </si>
-  <si>
     <t>ST-18430</t>
   </si>
   <si>
-    <t>ST-17903</t>
+    <t>ST-17838</t>
   </si>
   <si>
     <t>ST-18389</t>
@@ -118,163 +178,130 @@
     <t>ST-18052</t>
   </si>
   <si>
-    <t>ST-18413</t>
-  </si>
-  <si>
     <t>ST-18477</t>
   </si>
   <si>
-    <t>ST-18377</t>
-  </si>
-  <si>
-    <t>ST-18053</t>
-  </si>
-  <si>
-    <t>ST-18126</t>
-  </si>
-  <si>
-    <t>ST-18123</t>
-  </si>
-  <si>
-    <t>ST-18080</t>
-  </si>
-  <si>
-    <t>ST-18354</t>
-  </si>
-  <si>
-    <t>ST-18193</t>
-  </si>
-  <si>
-    <t>ST-18141</t>
-  </si>
-  <si>
     <t>ST-18227</t>
   </si>
   <si>
-    <t>ST-18201</t>
-  </si>
-  <si>
-    <t>ST-18224</t>
-  </si>
-  <si>
-    <t>ST-18476</t>
-  </si>
-  <si>
     <t>ST-18207</t>
   </si>
   <si>
-    <t>ST-18243</t>
-  </si>
-  <si>
-    <t>ST-18329</t>
-  </si>
-  <si>
-    <t>ST-18229</t>
-  </si>
-  <si>
-    <t>ST-18236</t>
-  </si>
-  <si>
-    <t>ST-18367</t>
-  </si>
-  <si>
     <t>ST-18288</t>
   </si>
   <si>
-    <t>ST-18268</t>
-  </si>
-  <si>
-    <t>ST-18233</t>
-  </si>
-  <si>
-    <t>ST-18286</t>
-  </si>
-  <si>
     <t>ST-18203</t>
   </si>
   <si>
-    <t>ST-18304</t>
-  </si>
-  <si>
-    <t>ST-18215</t>
-  </si>
-  <si>
-    <t>ST-18240</t>
-  </si>
-  <si>
-    <t>ST-18228</t>
-  </si>
-  <si>
     <t>ST-18230</t>
   </si>
   <si>
-    <t>ST-18242</t>
-  </si>
-  <si>
-    <t>ST-18245</t>
-  </si>
-  <si>
-    <t>ST-18284</t>
-  </si>
-  <si>
-    <t>ST-18365</t>
-  </si>
-  <si>
-    <t>ST-18436</t>
-  </si>
-  <si>
-    <t>ST-18519</t>
-  </si>
-  <si>
     <t>ST-18439</t>
   </si>
   <si>
-    <t>ST-18464</t>
-  </si>
-  <si>
     <t>ST-18502</t>
   </si>
   <si>
-    <t>ST-17838</t>
-  </si>
-  <si>
-    <t>徐莹</t>
+    <t>ST-18553</t>
   </si>
   <si>
     <t>魏卓航</t>
   </si>
   <si>
+    <t>尹浩康</t>
+  </si>
+  <si>
+    <t>吴佳慧</t>
+  </si>
+  <si>
+    <t>沙伟丽</t>
+  </si>
+  <si>
+    <t>蒲寅昇</t>
+  </si>
+  <si>
+    <t>冯欣恩</t>
+  </si>
+  <si>
+    <t>梁梅婷</t>
+  </si>
+  <si>
+    <t>鑫鑫</t>
+  </si>
+  <si>
+    <t>张祖源</t>
+  </si>
+  <si>
+    <t>何斯汝</t>
+  </si>
+  <si>
+    <t>王子瑜</t>
+  </si>
+  <si>
+    <t>张可鑫</t>
+  </si>
+  <si>
+    <t>葛宇飞</t>
+  </si>
+  <si>
+    <t>唐游鲲</t>
+  </si>
+  <si>
+    <t>王庆濠</t>
+  </si>
+  <si>
+    <t>伏茵</t>
+  </si>
+  <si>
+    <t>马薪荣</t>
+  </si>
+  <si>
+    <t>林荣江</t>
+  </si>
+  <si>
+    <t>吴智豪</t>
+  </si>
+  <si>
+    <t>谭钰</t>
+  </si>
+  <si>
+    <t>周桐</t>
+  </si>
+  <si>
+    <t>郑渊测试2</t>
+  </si>
+  <si>
+    <t>刘康誉</t>
+  </si>
+  <si>
+    <t>陈雨凡</t>
+  </si>
+  <si>
+    <t>常同学</t>
+  </si>
+  <si>
+    <t>吴静茹</t>
+  </si>
+  <si>
+    <t>罗嘉伟</t>
+  </si>
+  <si>
+    <t>胡一冉</t>
+  </si>
+  <si>
+    <t>方来婷</t>
+  </si>
+  <si>
+    <t>沙木哈尔</t>
+  </si>
+  <si>
     <t>马玥</t>
   </si>
   <si>
-    <t>尹浩康</t>
-  </si>
-  <si>
-    <t>刘康誉</t>
-  </si>
-  <si>
-    <t>吴佳慧</t>
-  </si>
-  <si>
-    <t>沙伟丽</t>
-  </si>
-  <si>
-    <t>蒲寅昇</t>
-  </si>
-  <si>
-    <t>许艺辉</t>
-  </si>
-  <si>
-    <t>王子瑞</t>
-  </si>
-  <si>
-    <t>冯欣恩</t>
-  </si>
-  <si>
     <t>欣瑶</t>
   </si>
   <si>
-    <t>王同学</t>
+    <t>王北菲</t>
   </si>
   <si>
     <t>毛思佳</t>
@@ -283,163 +310,88 @@
     <t>小宇</t>
   </si>
   <si>
-    <t>梁梅婷</t>
-  </si>
-  <si>
     <t>黄璟彤</t>
   </si>
   <si>
-    <t>吴浣桦</t>
-  </si>
-  <si>
-    <t>谢宜岑</t>
-  </si>
-  <si>
-    <t>鑫鑫</t>
-  </si>
-  <si>
-    <t>朱同学</t>
-  </si>
-  <si>
-    <t>张祖源</t>
-  </si>
-  <si>
-    <t>何斯汝</t>
-  </si>
-  <si>
-    <t>王子瑜</t>
-  </si>
-  <si>
-    <t>刘小雅</t>
-  </si>
-  <si>
     <t>罗鑫宇</t>
   </si>
   <si>
-    <t>刘雅琪</t>
-  </si>
-  <si>
-    <t>张可鑫</t>
-  </si>
-  <si>
-    <t>陈雨凡</t>
-  </si>
-  <si>
     <t>杨宏庆</t>
   </si>
   <si>
-    <t>葛宇飞</t>
-  </si>
-  <si>
-    <t>冯昊</t>
-  </si>
-  <si>
-    <t>常同学</t>
-  </si>
-  <si>
-    <t>吴静茹</t>
-  </si>
-  <si>
     <t>于蕾</t>
   </si>
   <si>
-    <t>王燕</t>
-  </si>
-  <si>
-    <t>唐游鲲</t>
-  </si>
-  <si>
-    <t>王庆濠</t>
-  </si>
-  <si>
     <t>尚初</t>
   </si>
   <si>
-    <t>伏茵</t>
-  </si>
-  <si>
-    <t>罗嘉伟</t>
-  </si>
-  <si>
-    <t>马薪荣</t>
-  </si>
-  <si>
-    <t>朱女士</t>
-  </si>
-  <si>
     <t>高宏武</t>
   </si>
   <si>
-    <t>林荣江</t>
-  </si>
-  <si>
-    <t>胡一冉</t>
-  </si>
-  <si>
-    <t>方来婷</t>
-  </si>
-  <si>
-    <t>沙木哈尔</t>
-  </si>
-  <si>
-    <t>吴智豪</t>
-  </si>
-  <si>
-    <t>谭钰</t>
-  </si>
-  <si>
     <t>卢屹俊</t>
   </si>
   <si>
-    <t>林桐</t>
-  </si>
-  <si>
     <t>冯颖</t>
   </si>
   <si>
-    <t>王北菲</t>
+    <t>康迪</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>70</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>77.77</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>地区：上海
-年级：8
-性别：女
-学科情况：物理
-兴趣爱好辅导班：未提
-学习积极性：一般
-QQ号，微信是否添加：添加
-推送了什么资料：未
-谁负责孩子学习：
-热度判断占比
-是否有报班 ： 15 《20分》
-父母是否陪同 ： 20 《20分》
-设备网络浏览器 ： 15《20分》
-孩子是否知道 ： 10《20分》
-支付能力 ： 10《20分》
-爸爸的联系方式 孩子一般近6点就到家了，上海本地，爸爸陪同，有电脑提醒下谷歌 语音可以用</t>
+    <t>中高</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>学生反馈较好，觉得有收获，妈妈说没有问题，简单反馈了上课情况</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>较高</t>
+  </si>
+  <si>
+    <t>不差钱，hp</t>
+  </si>
+  <si>
+    <t>学生意向一般</t>
+  </si>
+  <si>
+    <t>一般（孩子反应自己错了好多）</t>
   </si>
   <si>
     <t>地区：深圳
@@ -460,24 +412,6 @@
 爸爸的微信号是vsv531176370 有电脑提醒下载谷歌，人教版九年级数学</t>
   </si>
   <si>
-    <t>地区：张家口_x000D_
-年级：   走读_x000D_
-性别：女_x000D_
-学科情况：物理比较弱_x000D_
-兴趣爱好辅导班：_x000D_
-学习积极性_x000D_
-QQ号，微信是否添加：加孩子qq待通过_x000D_
-推送了什么资料：_x000D_
-谁负责孩子学习：_x000D_
-热度60_x000D_
-是否有报班：_x000D_
-父母是否陪同：     爸妈可以陪同_x000D_
-设备网络浏览器：    提前下载_x000D_
-孩子是否知道：       知道_x000D_
-支付能力：_x000D_
-其他：是孩子自己接听的电话，然后qq号也是孩子的，全程和孩子沟通，爸爸妈妈在旁边听，都知道这个事</t>
-  </si>
-  <si>
     <t>地区：深圳市龙岗区_x000D_
 年级，走读寄宿：初一_x000D_
 性别：男_x000D_
@@ -495,109 +429,31 @@
 支付能力： 《15分》</t>
   </si>
   <si>
-    <t>地区：深圳
-年级：初二 走读
-性别：男
-学科情况：数学思维不太好,各科都不太好
-学习积极性：不是很主动
-QQ号，微信是否添加： 家长qq765882887
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度 80
-是否有报班：  《20分》
-父母是否陪同： 可以 《20》
-设备网络浏览器： 有电脑《20分》
-孩子是否知道：  要商量   《20分》
-支付能力：         《20分》
-其他：初一时报了很多班,效果不太好,孩子目前好像只报了数学的课,平时上课时和老师互动少,初一抱太多班,现在孩子对补习有阴影,家长要和孩子沟通下,暂定下周一21:00-22:00试听数学</t>
-  </si>
-  <si>
     <t>QQ153087068北京 女孩  英语 初二 英语 80多分 ，以前能考90多，现在下降了 ，人教版  台电电脑可以语音 以前在VIP上过英语，手机号妈妈的微信已添加</t>
   </si>
   <si>
     <t>八年级，深圳上学，周二晚上19:30-20:30上课，数学考试多30分 语文成绩考试在40多分，我应该没有听错吧，台式电脑，没有耳麦，讲了让下载谷歌浏览器QQ2506649151  学员自己知道上课</t>
   </si>
   <si>
-    <t>地区：广东深圳
-年级：初一
-性别：男 走读
-学科情况：数学和英语成绩不理想 数学妈妈说考不及格 孩子说 考60 哈哈 可能是要面子吧
-兴趣爱好辅导班：
-学习积极性：还可以吧。
-QQ号已添加，微信已添加
-推送了什么资料：全推了
-谁负责孩子学习：妈妈
-热度
-是否有报班:《5分》
-父母是否陪同:《20》妈妈陪同
-设备网络浏览器:《20分》有谷歌浏览器 麦克风用手机QQ
-孩子是否知道:《20分》和孩子沟通过 表示愿意上课
+    <t>地区：广东深圳_x000D_
+年级：初一_x000D_
+性别：男 走读_x000D_
+学科情况：数学和英语成绩不理想 数学妈妈说考不及格 孩子说 考60 哈哈 可能是要面子吧_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：还可以吧。_x000D_
+QQ号已添加，微信已添加_x000D_
+推送了什么资料：全推了_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班:《5分》_x000D_
+父母是否陪同:《20》妈妈陪同_x000D_
+设备网络浏览器:《20分》有谷歌浏览器 麦克风用手机QQ_x000D_
+孩子是否知道:《20分》和孩子沟通过 表示愿意上课_x000D_
 支付能力:《5分》妈妈一直在问 有没有后续收费</t>
-  </si>
-  <si>
-    <t>福建 三明  妈妈说数学很不好 语数英都不是很理想 孩子叛逆 学习习惯不好 做作业磨蹭 十点以后写到 妈妈负责孩子的学习 不过只是督促 辅导不了 笔记本电脑 妈妈说孩子的基础不好怕补不了 说了是因人而异 从小学数学就不好 和孩子也沟通力 孩子要数学的 北师大版本  每次都需要妈妈盯着 妈妈还是挺有素质的  妈妈会陪同  已加妈妈的微信
-知识点暂时未发  告知家长会在孩子课后根据孩子的学习情况发送相应的知识宝典</t>
   </si>
   <si>
     <t>妈妈电话，13711601572_x000D_
 初三，广州上学，英语测评，走读，6点到家，23号9-10上课，有网络笔记本，孩子QQ2240798843，谷歌浏览器没有，方便电话，</t>
-  </si>
-  <si>
-    <t>地区：深圳
-年级：八年级
-性别：女
-学科情况：数学薄弱
-兴趣爱好辅导班：未知
-学习积极性：积极
-QQ号，微信是否添加：孩子的QQ已经通过
-推送了什么资料：否
-谁负责孩子学习：妈妈
-热度判断占比
-是否有报班        ：      未知  《20分》
-父母是否陪同    ：        妈妈《20分》
-设备网络浏览器 ：        笔记本《20分》
-孩子是否知道     ：       是 《20分》
-支付能力            ：        未知《20分》
-孩子自己的电话 自己领取的课程 数学不好 家里面是笔记本电脑 预约周一晚上8点半的数学课 还 加QQ：1499727525（已通过）</t>
-  </si>
-  <si>
-    <t>地区：上海
-年级：七年级
-性别：
-学科情况：数学
-兴趣爱好辅导班：
-学习积极性：
-QQ号，微信是否添加：已加微信 QQ234056847
-推送了什么资料：乂学介绍 公众号
-谁负责孩子学习：爸爸
-热度判断占比
-是否有报班 ：
-父母是否陪同 ： 爸爸陪同
-设备网络浏览器 ： 台式 笔记本电脑都有 爸爸说有谷歌浏览器
-孩子是否知道 ： 知道
-支付能力 ： 可以</t>
-  </si>
-  <si>
-    <t>13716105113，刚好一家人都在吃饭，爸爸妈妈孩子都在，是孩子领取的，在北京上7年级，三科都差不多80 ，想参加数学，预约27号晚上18:30—19:30初一北师大版数学检测，家里台式电脑，孩子QQ2971833967</t>
-  </si>
-  <si>
-    <t>地区：天津 北辰区_x000D_
-年级：初一 走读_x000D_
-性别：未知_x000D_
-学科情况：语文阅读不太好_x000D_
-兴趣爱好辅导班：没报辅导班_x000D_
-学习积极性：挺好，成绩也挺好_x000D_
-QQ号，微信是否添加：微信同手机_x000D_
-推送了什么资料：_x000D_
-谁负责孩子学习：妈妈_x000D_
-热度_x000D_
-是否有报班： 15     《20分》_x000D_
-父母是否陪同： 10    《20》家长没时间陪同_x000D_
-设备网络浏览器：20    《20分》_x000D_
-孩子是否知道： 18      《20分》_x000D_
-支付能力：      15      《20分》_x000D_
-其他：家长比较忙没时间陪孩子一起上课，让其他小孩子陪同，上课在同学家进行_x000D_
-孩子16:00以后都有空，暂定下周一16:00-17:30，因为上课在孩子朋友家，不能太晚</t>
   </si>
   <si>
     <t>地区：广东江门_x000D_
@@ -613,94 +469,26 @@
 其他：台式机，手机辅助。孩子爸爸手机号码：13422748313 ，人教版教材，女孩子性格稍害羞，5点半放学，系统手机号是孩子的：13717261756</t>
   </si>
   <si>
-    <t>地区：深圳市宝安区_x000D_
+    <t>地区：北京朝阳_x000D_
 年级：八年级_x000D_
-性别：女_x000D_
-学科情况：都不错，班级前几名，语文考试总是作文没写完就交卷了，阅读方面也慢。_x000D_
-兴趣爱好辅导班：比较喜欢运动，报了舞蹈班，补习班没有报，自控能力挺好的_x000D_
-学习积极性：挺好的_x000D_
-QQ号，微信是否添加：QQ：595202792，微信：13632571550 微信已添加_x000D_
-推送了什么资料：公众号及课前指导。_x000D_
-谁负责孩子学习：主要孩子自己负责_x000D_
+性别：_x000D_
+学科情况：语文比较薄弱，以前报过补习班，现在没有_x000D_
+兴趣爱好辅导班：无_x000D_
+学习积极性：_x000D_
+QQ号，微信是否添加：微信已加。QQ1737558477_x000D_
+推送了什么资料：官网视频_x000D_
+谁负责孩子学习： 不确定_x000D_
 热度_x000D_
-是否有报班： 从没报过学习辅助班_x000D_
-父母是否陪同： 爸爸陪同_x000D_
-设备网络浏览器： 还未安装谷歌浏览器_x000D_
-孩子是否知道： 知道，也同意了。_x000D_
-支付能力：性格方面不内也不外_x000D_
-其他：</t>
-  </si>
-  <si>
-    <t>地区：深圳
-年级：初二
-性别：
-学科情况：数学比较差，一直都不好，有在补习
-兴趣爱好辅导班：有，但补习不明显，一对多
-学习积极性：
-QQ号，微信是否添加：2575452687
-推送了什么资料：
-谁负责孩子学习：
-热度 70
-是否有报班： 有
-父母是否陪同：     有
-设备网络浏览器：台式电脑，以告知下载谷歌
-孩子是否知道：    知道
-支付能力：
-其他：妈妈白天要上班，对电脑也不是太懂，最好晚上打课前</t>
-  </si>
-  <si>
-    <t>在上海初一 女孩子 英语在首字母填空这块最差 语文作文会比较差 平常孩子晚上六点半就能完成作业 家里笔记本电脑  在民办学校 妈妈说打算让孩子走自招qq16719156_x000D_
-兴趣爱好辅导班：_x000D_
-学习积极性：_x000D_
-QQ号，微信是否添加：微信已加_x000D_
-推送了什么资料：_x000D_
-谁负责孩子学习：妈妈_x000D_
-热度判断占比_x000D_
-是否有报班 ： 《20分》_x000D_
-父母是否陪同 ： 20 《20分》_x000D_
-设备网络浏览器 ： 20 《20分》_x000D_
-孩子是否知道 ： 《20分》_x000D_
-支付能力 ： 10 《20分》</t>
-  </si>
-  <si>
-    <t>地区：北京朝阳
-年级：八年级
-性别：
-学科情况：语文比较薄弱，以前报过补习班，现在没有
-兴趣爱好辅导班：无
-学习积极性：
-QQ号，微信是否添加：微信已加。QQ1737558477
-推送了什么资料：官网视频
-谁负责孩子学习： 不确定
-热度
-是否有报班：     没有
-《20分》
-父母是否陪同： 不确定
-《10》
-设备网络浏览器：  爸爸知道谷歌，提前下载
-《15分》
-孩子是否知道： 还没有沟通
-《10分》
-支付能力：一般
-《10分》
-其他：</t>
-  </si>
-  <si>
-    <t>地区：上海
-年级：初一
-性别：
-学科情况：数学70,80,90都有，不稳定
-兴趣爱好辅导班：没有
-学习积极性：
-QQ号，微信是否添加：184524967
-推送了什么资料：
-谁负责孩子学习：
-热度 50
-是否有报班：  没有辅导班
-父母是否陪同：
-设备网络浏览器：台式，笔记本都有，已告知下载谷歌
-孩子是否知道：   知道
-支付能力：
+是否有报班：     没有_x000D_
+《20分》_x000D_
+父母是否陪同： 不确定_x000D_
+《10》_x000D_
+设备网络浏览器：  爸爸知道谷歌，提前下载_x000D_
+《15分》_x000D_
+孩子是否知道： 还没有沟通_x000D_
+《10分》_x000D_
+支付能力：一般_x000D_
+《10分》_x000D_
 其他：</t>
   </si>
   <si>
@@ -724,114 +512,43 @@
 其他： 13318872266爸爸电话</t>
   </si>
   <si>
-    <t>妈妈接，测英语，人教版的。约了下周一11/27下午16：30-17:30
-地区：广东阳江
-年级：7年级
-性别：
-学科情况：英语差，能考及格
-兴趣爱好辅导班：没有兴趣班和补习班
-学习积极性：孩子喜欢学习
-QQ、微信是否添加：加了妈妈QQ：635305154
-推送了什么资料：推送了英语课前小视屏和品牌介绍
-谁负责孩子学习：
-是否有报班(20)
-父母是否陪同（10）
-设备网络浏览器（10）
-孩子是否知道（0）
-支付能力（10）
+    <t>妈妈接，测英语，人教版的。约了下周一11/27下午16：30-17:30_x000D_
+地区：广东阳江_x000D_
+年级：7年级_x000D_
+性别：_x000D_
+学科情况：英语差，能考及格_x000D_
+兴趣爱好辅导班：没有兴趣班和补习班_x000D_
+学习积极性：孩子喜欢学习_x000D_
+QQ、微信是否添加：加了妈妈QQ：635305154_x000D_
+推送了什么资料：推送了英语课前小视屏和品牌介绍_x000D_
+谁负责孩子学习：_x000D_
+是否有报班(20)_x000D_
+父母是否陪同（10）_x000D_
+设备网络浏览器（10）_x000D_
+孩子是否知道（0）_x000D_
+支付能力（10）_x000D_
 其他：妈妈说电脑视频音频没问题，不要测试设备，会开课前1小时打开电脑登上QQ的临时测的</t>
   </si>
   <si>
     <t>七年级，上海青浦区上学，周一晚上20：30-21:30上课英语，英语比较薄弱，笔记本电脑，跟妈妈讲过下载谷歌浏览器，孩子知道这件事情QQ346583415</t>
   </si>
   <si>
-    <t>地区：上海
-年级：8年级走读 预约27星期一晚上7点试听英语
-性别：女孩子
-学科情况：英语薄弱，妈妈拒接孩子基础不好，英语的语法没有概念，在精锐有补习，但是妈妈觉得没有提升，了解了很久我们的乂学线上教育觉得还行。
-兴趣爱好辅导班：精锐报英语
-学习积极性：可以
-QQ号，微信是否添加：妈妈QQ：2103470274 有验证问题发短信告知，妈妈说微信不方便
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度：80
-是否有报班《20分》：有
-父母是否陪同《20分》：妈妈陪同
-设备网络浏览器《20分》： 笔记本电脑视频语音OK
-孩子是否知道《20分》：
-支付能力《20分》：绝对OK
-其他：和妈妈预约27号晚7点试听，这几天都在找补习班，周六晚上带孩子去其他机构看看。妈妈和我聊了17分钟，过程中没有问费用的问题，问我老师不喜欢能不能换，网课上能不能很好的互动</t>
-  </si>
-  <si>
-    <t>孩子五点多就放学了 预约7点半~8点半英语
-地区：上海
-年级：六年级
-性别：男孩儿
-学科情况：想试听英语 语文不是很好 成绩中上等
-兴趣爱好辅导班：没有问
-QQ号，微信是否添加：  加了微信  爸爸QQ 248556203 微信  18616789308
-推送了什么资料：指导视频
-谁负责孩子学习：一般是爸爸负责
-热度判断占比
-是否有报班        ：        《20分》
-父母是否陪同    ：  20      《20分》爸爸
-设备网络浏览器 ：   20     《20分》笔记本
-孩子是否知道     ：    20    《20分》孩子知道的
-支付能力            ：   10     《20分》</t>
-  </si>
-  <si>
-    <t>地区：天津
-年级：8年级走读
-性别：女孩子可爱
-学科情况：英语和物理薄弱，先听物理
-兴趣爱好辅导班：
-学习积极性：可以的
-QQ号，微信是否添加：妈妈QQ：1320046235
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度：75
-是否有报班《20分》：
-父母是否陪同《20分》：妈妈陪同
-设备网络浏览器《20分》： 笔记本台式电脑都有，告知妈妈下载谷歌没问题
-孩子是否知道《20分》：会上课
-支付能力《20分》：OK
-其他：和妈妈预约27号晚8点试听物理，妈妈特别好说什么就配合什么</t>
-  </si>
-  <si>
-    <t>地区：天津塘沽
-年级：九年级
-性别：男
-学科情况：英语
-兴趣爱好辅导班：未提
-学习积极性：一般
-QQ号，微信是否添加：添加
-推送了什么资料：未
-谁负责孩子学习：妈妈
-热度判断占比
-是否有报班 ： 15 《20分》
-父母是否陪同 ： 20 《20分》
-设备网络浏览器 ： 15《20分》
-孩子是否知道 ： 10《20分》
-支付能力 ： 10《20分》
+    <t>地区：天津塘沽_x000D_
+年级：九年级_x000D_
+性别：男_x000D_
+学科情况：英语_x000D_
+兴趣爱好辅导班：未提_x000D_
+学习积极性：一般_x000D_
+QQ号，微信是否添加：添加_x000D_
+推送了什么资料：未_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度判断占比_x000D_
+是否有报班 ： 15 《20分》_x000D_
+父母是否陪同 ： 20 《20分》_x000D_
+设备网络浏览器 ： 15《20分》_x000D_
+孩子是否知道 ： 10《20分》_x000D_
+支付能力 ： 10《20分》_x000D_
 妈妈是开店的 有电脑 可以语音，妈妈还挺好说话的 周一晚上7~8点英语，提醒下载谷歌，手机号就是妈妈微信</t>
-  </si>
-  <si>
-    <t>地区：天津滨海新区
-年级：7年级
-性别：女
-学科情况：语文
-兴趣爱好辅导班：未提
-学习积极性：一般
-QQ号，微信是否添加：添加
-推送了什么资料：未发
-谁负责孩子学习：妈妈
-热度判断占比
-是否有报班 ： 10 《20分》
-父母是否陪同 ： 20《20分》
-设备网络浏览器 ： 15《20分》
-孩子是否知道 ： 15《20分》
-支付能力 ： 15《20分》
-妈妈的联系方式 孩子每天都回来，差不多六点多点到家，有电脑，需要和手机结合上课，提醒下载谷歌 妈妈手机号就是微信号</t>
   </si>
   <si>
     <t>地区：北京_x000D_
@@ -852,38 +569,186 @@
 其他：</t>
   </si>
   <si>
-    <t>地区：深圳市
-年级： 八年级
+    <t>地区：深圳的_x000D_
+年级：六年级_x000D_
+性别：男_x000D_
+学科情况：学霸 都是90以上  语文期中考试91分_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：还可以_x000D_
+QQ号，微信是否添加：妈妈qq：2681442246 已同意  妈妈微信：手机号码  已同意_x000D_
+推送了什么资料：品牌介绍_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班：没有      《20分》_x000D_
+父母是否陪同：    妈妈陪同 《20》_x000D_
+设备网络浏览器： 台式电脑  没有摄像头 耳麦   《20分》_x000D_
+孩子是否知道：     不知道  但是妈妈说只要是学习 孩子愿意  《20分》_x000D_
+支付能力：            《20分》_x000D_
+其他：妈妈领取的  男孩子不喜欢出去玩   妈妈头像后面的墙壁都是奖状  妈妈很配合 觉得孩子需要尝试和提高</t>
+  </si>
+  <si>
+    <t>男孩子 六点回家 周一晚上7点半 电脑是台式的 QQ 3446468415 爸爸陪同 台式电脑
+地区：深圳
+年级：初一
+性别：男孩子
+学科情况：英语最差 想听数学
+兴趣爱好辅导班： 语文 数学没有补习班 英语有的
+学习积极性：还可以
+QQ号，微信是否添加：加了妈妈微信 和孩子QQ 妈妈微信 13410915137 孩子QQ 3446468415
+推送了什么资料：课前指导视频
+谁负责孩子学习：都负责
+热度判断占比
+是否有报班        ：  20      《20分》
+父母是否陪同    ：    20    《20分》妈妈说她没时间的话就爸爸陪同
+设备网络浏览器 ：     20   《20分》
+孩子是否知道     ：     20   《20分》和孩子沟通过
+支付能力            ：        《20分》</t>
+  </si>
+  <si>
+    <t>地区：深圳_x000D_
+年级：8年级_x000D_
+性别：女_x000D_
+学科情况：数学_x000D_
+兴趣爱好辅导班：未提_x000D_
+学习积极性：一般_x000D_
+QQ号，微信是否添加：添加_x000D_
+推送了什么资料：未发_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度判断占比_x000D_
+是否有报班 ： 10 《20分》_x000D_
+父母是否陪同 ： 20《20分》_x000D_
+设备网络浏览器 ： 15《20分》_x000D_
+孩子是否知道 ： 10《20分》_x000D_
+支付能力 ： 10《20分》_x000D_
+家里有电脑，没有摄像头需要结合上课 妈妈的联系方式孩子知道这件事，提醒下载谷歌。</t>
+  </si>
+  <si>
+    <t>地区： 深圳市
+年级：八年级
 性别：
 学科情况：语文
-兴趣爱好辅导班：
+兴趣爱好辅导班：有 数学培训班
 学习积极性：
-QQ号，微信是否添加：已加QQ 妈妈QQ1058417379
+QQ号，微信是否添加：已加微信 爸爸QQ1160009254
+推送了什么资料：乂学介绍 公众号
+谁负责孩子学习：爸爸
+热度判断占比
+是否有报班 ： 有
+父母是否陪同 ： 爸爸妈妈都可以
+设备网络浏览器 ： 台式电脑语音
+孩子是否知道 ： 暂时不知道 爸爸说孩子会上的
+支付能力 ：</t>
+  </si>
+  <si>
+    <t>地区：上海_x000D_
+年级：6年级_x000D_
+性别：男_x000D_
+学科情况：英语，数学，偏薄弱_x000D_
+兴趣爱好辅导班：无_x000D_
+学习积极性：平时挺积极的_x000D_
+QQ号，微信是否添加：QQ号是3486086793，微信是手机号，已添加_x000D_
+推送了什么资料：公众号，相关效果视频，官方网址_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班： 《20分》无_x000D_
+父母是否陪同： 《20》陪同_x000D_
+设备网络浏览器： 《20分》台式电脑，没有摄像头，手机代替视频工具_x000D_
+孩子是否知道： 《20分》知道_x000D_
+支付能力： 《20分》不了解_x000D_
+其他：</t>
+  </si>
+  <si>
+    <t>地区：深圳_x000D_
+年级：初一，走读_x000D_
+性别：男_x000D_
+学科情况：测试语文较弱，从小学阅读就弱，现代文丢分多_x000D_
+兴趣爱好辅导班：问妈妈有没有周末或者平时晚上给孩子补习提升一下，妈妈说没有_x000D_
+学习积极性：比较积极，听话_x000D_
+QQ号，微信是否添加：748610473  微信待通过_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班：  应该没有    《20分》_x000D_
+父母是否陪同：妈妈陪同     《20》_x000D_
+设备网络浏览器：台式，语音视频可以用，推荐下载谷歌或者qq浏览器    《20分》_x000D_
+孩子是否知道：  在家会上的     《20分》_x000D_
+支付能力：            《20分》_x000D_
+其他：妈妈较礼貌 13539966303，孩子平时的阅读量也挺多的，就是阅读一直比较弱，用人教版</t>
+  </si>
+  <si>
+    <t>地区：广州_x000D_
+年级：7年级   走读_x000D_
+性别：女_x000D_
+学科情况：英语薄弱，没有参加课外辅导_x000D_
+兴趣爱好辅导班：没有_x000D_
+学习积极性：一般_x000D_
+QQ号，微信是否添加：加孩子QQ_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度    65_x000D_
+是否有报班：   没有   《15分》_x000D_
+父母是否陪同：   妈妈   《20分》_x000D_
+设备网络浏览器： 笔记本电脑，需要下载谷歌浏览器     《15分》_x000D_
+孩子是否知道：   跟孩子确定过   《15分》_x000D_
+支付能力：_x000D_
+其他：</t>
+  </si>
+  <si>
+    <t>地区：江西抚州_x000D_
+年级：初二_x000D_
+性别：_x000D_
+学科情况：英语_x000D_
+电脑网络:台式电脑_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：还可以_x000D_
+ QQ号，微信是否添加：      13537738434  通过_x000D_
+ 推送了什么资料：品牌介绍和公众号_x000D_
+谁负责孩子学习：妈妈陪同   妈妈: 13613057377_x000D_
+热度_x000D_
+是否有报班：10 《20分》_x000D_
+父母是否陪同：20   《20分》_x000D_
+设备网络浏览器：  20 《20分》_x000D_
+孩子是否知道： 5   《20分》_x000D_
+支付能力： 10       《20分》_x000D_
+其他：爸爸说  想尝试这种方式   在深圳  同学在江西抚州 爸爸态度很积极  经济支出是爸爸这边 妈妈在家陪同孩子</t>
+  </si>
+  <si>
+    <t>家中是否有电脑：否  是否参加免费试听课：是  1</t>
+  </si>
+  <si>
+    <t>地区：深圳
+年级：初二 走读
+性别：男
+学科情况：数学思维不太好,各科都不太好
+学习积极性：不是很主动
+QQ号，微信是否添加： 家长qq765882887
 推送了什么资料：
 谁负责孩子学习：妈妈
-热度判断占比
-是否有报班 ： 有
-父母是否陪同 ： 妈妈陪同
-设备网络浏览器 ： 台式电脑
-孩子是否知道 ： 知道
-支付能力 ：</t>
-  </si>
-  <si>
-    <t>一般五点放学 周一7点
-地区：上海
-年级： 初一
-性别：女孩儿
-学科情况：数学薄弱
-兴趣爱好辅导班：
-QQ号，微信是否添加： 加了微信 爸爸QQ 813675215 爸爸微信 13916018890
-推送了什么资料：课前指导视频
-谁负责孩子学习：妈妈负责
-热度判断占比
-是否有报班        ：        《20分》
-父母是否陪同    ：     20   《20分》 爸爸陪同
-设备网络浏览器 ：     20 《20分》
-孩子是否知道     ：        《20分》
-支付能力            ：      10  《20分》</t>
+热度 80
+是否有报班：  《20分》
+父母是否陪同： 可以 《20》
+设备网络浏览器： 有电脑《20分》
+孩子是否知道：  要商量   《20分》
+支付能力：         《20分》
+其他：初一时报了很多班,效果不太好,孩子目前好像只报了数学的课,平时上课时和老师互动少,初一抱太多班,现在孩子对补习有阴影,家长要和孩子沟通下,暂定下周一21:00-22:00试听数学</t>
+  </si>
+  <si>
+    <t>地区：天津滨海新区_x000D_
+年级：7年级_x000D_
+性别：女_x000D_
+学科情况：语文_x000D_
+兴趣爱好辅导班：未提_x000D_
+学习积极性：一般_x000D_
+QQ号，微信是否添加：添加_x000D_
+推送了什么资料：未发_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度判断占比_x000D_
+是否有报班 ： 10 《20分》_x000D_
+父母是否陪同 ： 20《20分》_x000D_
+设备网络浏览器 ： 15《20分》_x000D_
+孩子是否知道 ： 15《20分》_x000D_
+支付能力 ： 15《20分》_x000D_
+妈妈的联系方式 孩子每天都回来，差不多六点多点到家，有电脑，需要和手机结合上课，提醒下载谷歌 妈妈手机号就是微信号</t>
   </si>
   <si>
     <t>地区：北京
@@ -904,130 +769,22 @@
 妈妈叫常文洁，说先上完这节课在告诉孩子的名字。家里有电脑语音可以用 妈妈的联系方式 可以陪同上课。提醒下载谷歌</t>
   </si>
   <si>
-    <t>地区：广州 是东莞的号码 在广州念书
-年级：八年级
-性别：女孩子
-学科情况：数学相对薄弱 妈妈辅导不了 孩子自主性比较好 妈妈只能督促 是孩子自己通过学校老师分享的问卷领取的
-兴趣爱好辅导班：
-学习积极性：
-QQ号，微信是否添加：
-推送了什么资料：
-谁负责孩子学习：
-热度
-是否有报班： 《20分》
-父母是否陪同：妈妈 《20》
-设备网络浏览器：台式机 笔记本 都有 告知妈妈下载谷歌 《20分》
-孩子是否知道： 上课的事 暂时不知 妈妈会安排的 孩子一般六点左右回来 作业写到九十点 和妈妈说了下这节课的重要性 周一晚上上课OK 《20分》
-支付能力： 《20分》
-其他：QQ号码是爸爸的</t>
-  </si>
-  <si>
-    <t>地区：北京_x000D_
-年级：七年级 走读 人教_x000D_
+    <t>地区：广州 是东莞的号码 在广州念书_x000D_
+年级：八年级_x000D_
 性别：女孩子_x000D_
-学科情况：数学薄弱 姐姐辅导 数学比较感兴趣 但是没有方式 孩子说小学的时候还能几个边缘线 初中跟不上 就不及格 其实孩子对数学还是感兴趣的呢  孩子写作业还是蛮有效率的  一般在学校都能搞定 再不济回家二十分钟_x000D_
+学科情况：数学相对薄弱 妈妈辅导不了 孩子自主性比较好 妈妈只能督促 是孩子自己通过学校老师分享的问卷领取的_x000D_
 兴趣爱好辅导班：_x000D_
 学习积极性：_x000D_
-QQ号，微信是否添加：已加妈妈的微信_x000D_
-推送了什么资料：发了课前指导视频和品牌介绍_x000D_
-谁负责孩子学习：，妈妈_x000D_
-热度80_x000D_
+QQ号，微信是否添加：_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：_x000D_
+热度_x000D_
 是否有报班： 《20分》_x000D_
-父母是否陪同： 妈妈会陪同 《20》_x000D_
-设备网络浏览器：台式机结合iPad 告知下载谷歌 《20分》_x000D_
-孩子是否知道：知道 和孩子交流了安排的数学 《20分》_x000D_
+父母是否陪同：妈妈 《20》_x000D_
+设备网络浏览器：台式机 笔记本 都有 告知妈妈下载谷歌 《20分》_x000D_
+孩子是否知道： 上课的事 暂时不知 妈妈会安排的 孩子一般六点左右回来 作业写到九十点 和妈妈说了下这节课的重要性 周一晚上上课OK 《20分》_x000D_
 支付能力： 《20分》_x000D_
-其他：孩子的QQ验证问题是13522905336 家里还有个一年级的还有一个高中的   妈妈的问题是我们的上课一直是网上一对一吗，以后想上课的话哦联系谁</t>
-  </si>
-  <si>
-    <t>地区：上海
-年级：8年级走读5:30到家
-性别：女孩子挺活泼的
-学科情况：数学英语薄,60-70/100，语文80/100，听数学
-兴趣爱好辅导班：5年级有补习不理想，现在没有补课班
-学习积极性：孩子和爸爸都非常的配合积极
-QQ号，微信是否添加：有爸爸微信，孩子QQ：2912667082
-推送了什么资料：智慧星空
-谁负责孩子学习：妈妈爸爸
-热度：85
-是否有报班《20分》：没有
-父母是否陪同《20分》： 都可以
-设备网络浏览器《20分》： 笔记本是语音OK，告知爸爸下载谷歌或者QQ浏览器 没问题 周一提前去电测试
-孩子是否知道《20分》：知道
-支付能力《20分》：ok
-其他：和爸爸。孩子预约27号晚7点试听数学</t>
-  </si>
-  <si>
-    <t>地区：深圳_x000D_
-年级：六年级_x000D_
-性别：男_x000D_
-学科情况：学霸 都是90以上  语文期中考试91分_x000D_
-兴趣爱好辅导班：_x000D_
-学习积极性：还可以_x000D_
-QQ号，微信是否添加：妈妈qq：2681442246 已同意  妈妈微信：手机号码  已同意_x000D_
-推送了什么资料：品牌介绍_x000D_
-谁负责孩子学习：妈妈_x000D_
-热度_x000D_
-是否有报班：没有      《20分》_x000D_
-父母是否陪同：    妈妈陪同 《20》_x000D_
-设备网络浏览器： 台式电脑  没有摄像头 耳麦   《20分》_x000D_
-孩子是否知道：     不知道  但是妈妈说只要是学习 孩子愿意  《20分》_x000D_
-支付能力：            《20分》_x000D_
-其他：妈妈领取的  男孩子不喜欢出去玩   妈妈头像后面的墙壁都是奖状  妈妈很配合 觉得孩子需要尝试和提高</t>
-  </si>
-  <si>
-    <t>男孩子 六点回家 周一晚上7点半 电脑是台式的 QQ 3446468415 爸爸陪同 台式电脑
-地区：深圳
-年级：初一
-性别：男孩子
-学科情况：英语最差 想听数学
-兴趣爱好辅导班： 语文 数学没有补习班 英语有的
-学习积极性：还可以
-QQ号，微信是否添加：加了妈妈微信 和孩子QQ 妈妈微信 13410915137 孩子QQ 3446468415
-推送了什么资料：课前指导视频
-谁负责孩子学习：都负责
-热度判断占比
-是否有报班        ：  20      《20分》
-父母是否陪同    ：    20    《20分》妈妈说她没时间的话就爸爸陪同
-设备网络浏览器 ：     20   《20分》
-孩子是否知道     ：     20   《20分》和孩子沟通过
-支付能力            ：        《20分》</t>
-  </si>
-  <si>
-    <t>地区：北京
-年级：7年级
-性别：
-学科情况：语文
-兴趣爱好辅导班：未提
-学习积极性：一般
-QQ号，微信是否添加：添加
-推送了什么资料：未
-谁负责孩子学习：妈妈
-热度判断占比
-是否有报班 ： 10 《20分》
-父母是否陪同 ： 20《20分》
-设备网络浏览器 ： 15《20分》
-孩子是否知道 ： 15《20分》
-支付能力 ： 15《20分》
-妈妈的联系方式，妈妈认可线上学习这种学习方式，家里电脑可以用 语音视频也没问题 需要安装谷歌 已提醒下载</t>
-  </si>
-  <si>
-    <t>地区：深圳
-年级：8年级
-性别：女
-学科情况：数学
-兴趣爱好辅导班：未提
-学习积极性：一般
-QQ号，微信是否添加：添加
-推送了什么资料：未发
-谁负责孩子学习：妈妈
-热度判断占比
-是否有报班 ： 10 《20分》
-父母是否陪同 ： 20《20分》
-设备网络浏览器 ： 15《20分》
-孩子是否知道 ： 10《20分》
-支付能力 ： 10《20分》
-家里有电脑，没有摄像头需要结合上课 妈妈的联系方式孩子知道这件事，提醒下载谷歌。</t>
+其他：QQ号码是爸爸的</t>
   </si>
   <si>
     <t>周一晚上9点~10点 和妈妈沟通的很好 妈妈对于孩子成绩比较上心的 也想提高 妈妈很温柔
@@ -1046,79 +803,6 @@
 设备网络浏览器 ：   20     《20分》笔记本
 孩子是否知道     ：        《20分》
 支付能力            ：     10   《20分》</t>
-  </si>
-  <si>
-    <t>地区： 深圳市
-年级：八年级
-性别：
-学科情况：语文
-兴趣爱好辅导班：有 数学培训班
-学习积极性：
-QQ号，微信是否添加：已加微信 爸爸QQ1160009254
-推送了什么资料：乂学介绍 公众号
-谁负责孩子学习：爸爸
-热度判断占比
-是否有报班 ： 有
-父母是否陪同 ： 爸爸妈妈都可以
-设备网络浏览器 ： 台式电脑语音
-孩子是否知道 ： 暂时不知道 爸爸说孩子会上的
-支付能力 ：</t>
-  </si>
-  <si>
-    <t>地区：北京_x000D_
-年级：七年级_x000D_
-走读_x000D_
-性别：_x000D_
-学科情况：妈妈说孩子成绩语数英都不弱，就先检测下语文吧_x000D_
-兴趣爱好辅导班：有英语的口语课_x000D_
-学习积极性：_x000D_
-QQ号： 451778468的QQ_x000D_
-微信是否添加：加QQ_x000D_
-推送了什么资料：_x000D_
-谁负责孩子学习：_x000D_
-热度_x000D_
-是否有报班：      《20分》_x000D_
-父母是否陪同：     《20》_x000D_
-设备网络浏览器：《20分》_x000D_
-孩子是否知道：       《20分》_x000D_
-支付能力：            《20分》_x000D_
-其他： 13121589301 妈妈电话</t>
-  </si>
-  <si>
-    <t>地区：上海 非户籍 妈妈是做美容美发的 挺漂亮
-年级：六年级 预备班
-性别：男孩子
-学科情况：英语相对薄弱 妈妈一般下班比较晚 是通过孩子学校老师分享的问卷领取的 会陪同孩子来上课的
-兴趣爱好辅导班：
-学习积极性：
-QQ号，微信是否添加：
-推送了什么资料：
-谁负责孩子学习：
-热度70
-是否有报班： 《20分》
-父母是否陪同： 有 《20》
-设备网络浏览器：台式机有耳麦 告知妈妈下载谷歌浏览器 《20分》
-孩子是否知道： 《20分》
-支付能力： 《20分》
-其他：</t>
-  </si>
-  <si>
-    <t>地区：上海_x000D_
-年级：6年级_x000D_
-性别：男_x000D_
-学科情况：英语，数学，偏薄弱_x000D_
-兴趣爱好辅导班：无_x000D_
-学习积极性：平时挺积极的_x000D_
-QQ号，微信是否添加：QQ号是3486086793，微信是手机号，已添加_x000D_
-推送了什么资料：公众号，相关效果视频，官方网址_x000D_
-谁负责孩子学习：妈妈_x000D_
-热度_x000D_
-是否有报班： 《20分》无_x000D_
-父母是否陪同： 《20》陪同_x000D_
-设备网络浏览器： 《20分》台式电脑，没有摄像头，手机代替视频工具_x000D_
-孩子是否知道： 《20分》知道_x000D_
-支付能力： 《20分》不了解_x000D_
-其他：</t>
   </si>
   <si>
     <t>地区：天津 滨海新区_x000D_
@@ -1177,76 +861,40 @@
 其他： 18999919085妈妈 电话</t>
   </si>
   <si>
-    <t>地区：深圳
-年级：初一，走读
-性别：男
-学科情况：测试语文较弱，从小学阅读就弱，现代文丢分多
-兴趣爱好辅导班：问妈妈有没有周末或者平时晚上给孩子补习提升一下，妈妈说没有
-学习积极性：比较积极，听话
-QQ号，微信是否添加：748610473  微信待通过
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度
-是否有报班：  应该没有    《20分》
-父母是否陪同：妈妈陪同     《20》
-设备网络浏览器：台式，语音视频可以用，推荐下载谷歌或者qq浏览器    《20分》
-孩子是否知道：  在家会上的     《20分》
-支付能力：            《20分》
-其他：妈妈较礼貌 13539966303，孩子平时的阅读量也挺多的，就是阅读一直比较弱，用人教版</t>
-  </si>
-  <si>
-    <t>地区：广州
-年级：7年级   走读
-性别：女
-学科情况：英语薄弱，没有参加课外辅导
-兴趣爱好辅导班：没有
-学习积极性：一般
-QQ号，微信是否添加：加孩子QQ
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度    65
-是否有报班：   没有   《15分》
-父母是否陪同：   妈妈   《20分》
-设备网络浏览器： 笔记本电脑，需要下载谷歌浏览器     《15分》
-孩子是否知道：   跟孩子确定过   《15分》
-支付能力：
-其他：</t>
-  </si>
-  <si>
-    <t>地区：上海
-年级：七年级
-性别：男孩子
-学科情况：妈妈是通过学校老师这边有领取的 是孩子的语文相对薄弱 妈妈要安排语文 明天能够陪同 孩子六点前能回来
-兴趣爱好辅导班：
-学习积极性：
-QQ号，微信是否添加：
-推送了什么资料：
-谁负责孩子学习：妈妈
-热度
-是否有报班： 《20分》
-父母是否陪同：妈妈 《20》
-设备网络浏览器：台式机 结合手机 告知妈妈下载谷歌浏览器 《20分》
-孩子是否知道： 《20分》
-支付能力： 《20分》
-其他：QQ的验证问题 没有标准答案的</t>
-  </si>
-  <si>
-    <t>地区：_x000D_
-年级：北京市七年级_x000D_
-性别：_x000D_
-学科情况：英语弱_x000D_
-兴趣爱好辅导班：有_x000D_
-学习积极性：还好_x000D_
-QQ号，微信是否添加：已加_x000D_
-推送了什么资料：暂无_x000D_
-谁负责孩子学习：妈妈多谢_x000D_
-热度判断占比  90_x000D_
-是否有报班        ：       20 《20分》_x000D_
-父母是否陪同    ：        20《20分》_x000D_
-设备网络浏览器 ：        20《20分》_x000D_
-孩子是否知道     ：     15   《20分》_x000D_
-支付能力            ：   15     《20分》_x000D_
-北京市七年级，妈妈辅导的多，在上的补习班的（5年级下学期才报的），英语弱，孩子基础弱，词汇量少，有点跟不上，觉得有点吃力（妈妈反应教育联系的比较多，多少有点反感，说明课程之后先了解下，还是比较善解人意的）平常晚上18-19点的补习班课程，中午11点30到家，预约12点-13点的英语课程，QQ531561065妈妈的，笔记本ok，已提醒课前致电，方便接听电话的，妈妈在家带小宝宝15801411180</t>
+    <t>地区：张家口_x000D_
+年级：   走读_x000D_
+性别：女_x000D_
+学科情况：物理比较弱_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性_x000D_
+QQ号，微信是否添加：加孩子qq待通过_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：_x000D_
+热度60_x000D_
+是否有报班：_x000D_
+父母是否陪同：     爸妈可以陪同_x000D_
+设备网络浏览器：    提前下载_x000D_
+孩子是否知道：       知道_x000D_
+支付能力：_x000D_
+其他：是孩子自己接听的电话，然后qq号也是孩子的，全程和孩子沟通，爸爸妈妈在旁边听，都知道这个事</t>
+  </si>
+  <si>
+    <t>地区：深圳_x000D_
+年级：八年级_x000D_
+性别：女_x000D_
+学科情况：数学薄弱_x000D_
+兴趣爱好辅导班：未知_x000D_
+学习积极性：积极_x000D_
+QQ号，微信是否添加：孩子的QQ已经通过_x000D_
+推送了什么资料：否_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度判断占比_x000D_
+是否有报班        ：      未知  《20分》_x000D_
+父母是否陪同    ：        妈妈《20分》_x000D_
+设备网络浏览器 ：        笔记本《20分》_x000D_
+孩子是否知道     ：       是 《20分》_x000D_
+支付能力            ：        未知《20分》_x000D_
+孩子自己的电话 自己领取的课程 数学不好 家里面是笔记本电脑 预约周一晚上8点半的数学课 还 加QQ：1499727525（已通过）</t>
   </si>
   <si>
     <t>地区：北京_x000D_
@@ -1267,121 +915,278 @@
 其他：</t>
   </si>
   <si>
-    <t>试听-同步-17秋-常规-物-8-沪教</t>
+    <t>13716105113，刚好一家人都在吃饭，爸爸妈妈孩子都在，是孩子领取的，在北京上7年级，三科都差不多80 ，想参加数学，预约27号晚上18:30—19:30初一北师大版数学检测，家里台式电脑，孩子QQ2971833967</t>
+  </si>
+  <si>
+    <t>地区：天津 北辰区_x000D_
+年级：初一 走读_x000D_
+性别：未知_x000D_
+学科情况：语文阅读不太好_x000D_
+兴趣爱好辅导班：没报辅导班_x000D_
+学习积极性：挺好，成绩也挺好_x000D_
+QQ号，微信是否添加：微信同手机_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班： 15     《20分》_x000D_
+父母是否陪同： 10    《20》家长没时间陪同_x000D_
+设备网络浏览器：20    《20分》_x000D_
+孩子是否知道： 18      《20分》_x000D_
+支付能力：      15      《20分》_x000D_
+其他：家长比较忙没时间陪孩子一起上课，让其他小孩子陪同，上课在同学家进行_x000D_
+孩子16:00以后都有空，暂定下周一16:00-17:30，因为上课在孩子朋友家，不能太晚</t>
+  </si>
+  <si>
+    <t>地区：深圳市宝安区_x000D_
+年级：八年级_x000D_
+性别：女_x000D_
+学科情况：都不错，班级前几名，语文考试总是作文没写完就交卷了，阅读方面也慢。_x000D_
+兴趣爱好辅导班：比较喜欢运动，报了舞蹈班，补习班没有报，自控能力挺好的_x000D_
+学习积极性：挺好的_x000D_
+QQ号，微信是否添加：QQ：595202792，微信：13632571550 微信已添加_x000D_
+推送了什么资料：公众号及课前指导。_x000D_
+谁负责孩子学习：主要孩子自己负责_x000D_
+热度_x000D_
+是否有报班： 从没报过学习辅助班_x000D_
+父母是否陪同： 爸爸陪同_x000D_
+设备网络浏览器： 还未安装谷歌浏览器_x000D_
+孩子是否知道： 知道，也同意了。_x000D_
+支付能力：性格方面不内也不外_x000D_
+其他：</t>
+  </si>
+  <si>
+    <t>孩子五点多就放学了 预约7点半~8点半英语
+地区：上海
+年级：六年级
+性别：男孩儿
+学科情况：想试听英语 语文不是很好 成绩中上等
+兴趣爱好辅导班：没有问
+QQ号，微信是否添加：  加了微信  爸爸QQ 248556203 微信  18616789308
+推送了什么资料：指导视频
+谁负责孩子学习：一般是爸爸负责
+热度判断占比
+是否有报班        ：        《20分》
+父母是否陪同    ：  20      《20分》爸爸
+设备网络浏览器 ：   20     《20分》笔记本
+孩子是否知道     ：    20    《20分》孩子知道的
+支付能力            ：   10     《20分》</t>
+  </si>
+  <si>
+    <t>地区：北京_x000D_
+年级：七年级 走读 人教_x000D_
+性别：女孩子_x000D_
+学科情况：数学薄弱 姐姐辅导 数学比较感兴趣 但是没有方式 孩子说小学的时候还能几个边缘线 初中跟不上 就不及格 其实孩子对数学还是感兴趣的呢  孩子写作业还是蛮有效率的  一般在学校都能搞定 再不济回家二十分钟_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：_x000D_
+QQ号，微信是否添加：已加妈妈的微信_x000D_
+推送了什么资料：发了课前指导视频和品牌介绍_x000D_
+谁负责孩子学习：，妈妈_x000D_
+热度80_x000D_
+是否有报班： 《20分》_x000D_
+父母是否陪同： 妈妈会陪同 《20》_x000D_
+设备网络浏览器：台式机结合iPad 告知下载谷歌 《20分》_x000D_
+孩子是否知道：知道 和孩子交流了安排的数学 《20分》_x000D_
+支付能力： 《20分》_x000D_
+其他：孩子的QQ验证问题是13522905336 家里还有个一年级的还有一个高中的   妈妈的问题是我们的上课一直是网上一对一吗，以后想上课的话哦联系谁</t>
+  </si>
+  <si>
+    <t>地区：北京_x000D_
+年级：7年级_x000D_
+性别：_x000D_
+学科情况：语文_x000D_
+兴趣爱好辅导班：未提_x000D_
+学习积极性：一般_x000D_
+QQ号，微信是否添加：添加_x000D_
+推送了什么资料：未_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度判断占比_x000D_
+是否有报班 ： 10 《20分》_x000D_
+父母是否陪同 ： 20《20分》_x000D_
+设备网络浏览器 ： 15《20分》_x000D_
+孩子是否知道 ： 15《20分》_x000D_
+支付能力 ： 15《20分》_x000D_
+妈妈的联系方式，妈妈认可线上学习这种学习方式，家里电脑可以用 语音视频也没问题 需要安装谷歌 已提醒下载</t>
+  </si>
+  <si>
+    <t>地区：上海 非户籍 妈妈是做美容美发的 挺漂亮_x000D_
+年级：六年级 预备班_x000D_
+性别：男孩子_x000D_
+学科情况：英语相对薄弱 妈妈一般下班比较晚 是通过孩子学校老师分享的问卷领取的 会陪同孩子来上课的_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：_x000D_
+QQ号，微信是否添加：_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：_x000D_
+热度70_x000D_
+是否有报班： 《20分》_x000D_
+父母是否陪同： 有 《20》_x000D_
+设备网络浏览器：台式机有耳麦 告知妈妈下载谷歌浏览器 《20分》_x000D_
+孩子是否知道： 《20分》_x000D_
+支付能力： 《20分》_x000D_
+其他：</t>
+  </si>
+  <si>
+    <t>地区：上海_x000D_
+年级：七年级_x000D_
+性别：男孩子_x000D_
+学科情况：妈妈是通过学校老师这边有领取的 是孩子的语文相对薄弱 妈妈要安排语文 明天能够陪同 孩子六点前能回来_x000D_
+兴趣爱好辅导班：_x000D_
+学习积极性：_x000D_
+QQ号，微信是否添加：_x000D_
+推送了什么资料：_x000D_
+谁负责孩子学习：妈妈_x000D_
+热度_x000D_
+是否有报班： 《20分》_x000D_
+父母是否陪同：妈妈 《20》_x000D_
+设备网络浏览器：台式机 结合手机 告知妈妈下载谷歌浏览器 《20分》_x000D_
+孩子是否知道： 《20分》_x000D_
+支付能力： 《20分》_x000D_
+其他：QQ的验证问题 没有标准答案的</t>
+  </si>
+  <si>
+    <t>北京西城区，学校不肯透露，上完课再说。_x000D_
+了解了我们和传统的区别，之前没有补过数学，上初一成绩中等个，100分考80分左右，觉得其他科目比较好不用补。</t>
   </si>
   <si>
     <t>试听-同步-17秋-常规-数-9-人教</t>
   </si>
   <si>
+    <t>试听-同步-17夏秋-常规-英-7-非沪教</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-英-8-非沪教</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-语</t>
+  </si>
+  <si>
+    <t>试听-同步-17秋-常规-数-8-北师</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-英-9-非沪教</t>
+  </si>
+  <si>
+    <t>试听-同步-17秋-常规-数-7-人教</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-英-7-沪教</t>
+  </si>
+  <si>
+    <t>试听-同步-17秋-常规-数-8-人教</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-英-6-沪教</t>
+  </si>
+  <si>
+    <t>（测试）试听-17秋冬-英-8-非沪教</t>
+  </si>
+  <si>
+    <t>试听-同步-17秋-常规-物-8-人教</t>
+  </si>
+  <si>
+    <t>试听-同步-17夏秋-常规-数-8-沪教</t>
+  </si>
+  <si>
     <t>试听-同步-17秋-常规-物-9-人教</t>
   </si>
   <si>
-    <t>试听-同步-17夏秋-常规-英-7-非沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17秋-常规-数-8-北师</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-英-8-非沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-语</t>
-  </si>
-  <si>
     <t>试听-同步-17秋-常规-数-7-北师</t>
   </si>
   <si>
-    <t>试听-同步-17夏秋-常规-英-9-非沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17秋-常规-数-8-人教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-英-7-沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17秋-常规-数-7-人教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-数-7-沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-英-8-沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-英-6-沪教</t>
-  </si>
-  <si>
-    <t>试听-同步-17秋-常规-物-8-人教</t>
-  </si>
-  <si>
-    <t>试听-同步-17夏秋-常规-数-8-沪教</t>
+    <t>19:30-20:30</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>20:30-21:30</t>
   </si>
   <si>
     <t>18:30-19:30</t>
   </si>
   <si>
-    <t>19:30-20:30</t>
+    <t>16:30-17:30</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>08:30-09:30</t>
   </si>
   <si>
     <t>21:00-22:00</t>
   </si>
   <si>
-    <t>20:00-21:00</t>
-  </si>
-  <si>
-    <t>20:30-21:30</t>
-  </si>
-  <si>
-    <t>19:00-20:00</t>
-  </si>
-  <si>
     <t>17:00-18:00</t>
   </si>
   <si>
-    <t>12:00-13:00</t>
-  </si>
-  <si>
-    <t>16:30-17:30</t>
+    <t>13:00-14:00</t>
   </si>
   <si>
     <t>18:00-19:00</t>
   </si>
   <si>
-    <t>张百韬</t>
-  </si>
-  <si>
     <t>王桂平</t>
   </si>
   <si>
+    <t>罗倩</t>
+  </si>
+  <si>
+    <t>徐娇娇</t>
+  </si>
+  <si>
+    <t>高宇</t>
+  </si>
+  <si>
+    <t>常馨月</t>
+  </si>
+  <si>
+    <t>章梅</t>
+  </si>
+  <si>
+    <t>韩二彪</t>
+  </si>
+  <si>
+    <t>杨蕾蕾</t>
+  </si>
+  <si>
+    <t>张如意</t>
+  </si>
+  <si>
+    <t>单丽芳</t>
+  </si>
+  <si>
+    <t>仇惠丹</t>
+  </si>
+  <si>
+    <t>鲁琼琼</t>
+  </si>
+  <si>
+    <t>秦伟杰</t>
+  </si>
+  <si>
+    <t>宋星</t>
+  </si>
+  <si>
+    <t>testyao</t>
+  </si>
+  <si>
+    <t>张爱晶</t>
+  </si>
+  <si>
+    <t>高媛</t>
+  </si>
+  <si>
+    <t>杨绪敏</t>
+  </si>
+  <si>
     <t>刘露</t>
   </si>
   <si>
-    <t>罗倩</t>
-  </si>
-  <si>
-    <t>张爱晶</t>
-  </si>
-  <si>
-    <t>0此时段无教师可对接</t>
-  </si>
-  <si>
-    <t>杨绪敏</t>
-  </si>
-  <si>
-    <t>孙淼</t>
-  </si>
-  <si>
-    <t>章梅</t>
-  </si>
-  <si>
-    <t>张国勋</t>
-  </si>
-  <si>
-    <t>徐娇娇</t>
-  </si>
-  <si>
-    <t>仇惠丹</t>
+    <t>【不出席】</t>
+  </si>
+  <si>
+    <t>0教务中转（数）</t>
   </si>
   <si>
     <t>张笑笑</t>
@@ -1390,298 +1195,292 @@
     <t>张耀</t>
   </si>
   <si>
-    <t>常馨月</t>
-  </si>
-  <si>
-    <t>鲁琼琼</t>
-  </si>
-  <si>
-    <t>韩二彪</t>
-  </si>
-  <si>
-    <t>高媛</t>
-  </si>
-  <si>
-    <t>单丽芳</t>
-  </si>
-  <si>
-    <t>秦伟杰</t>
-  </si>
-  <si>
-    <t>TMK-教务专用（物理）</t>
-  </si>
-  <si>
-    <t>【不出席】</t>
+    <t>范景颢</t>
+  </si>
+  <si>
+    <t>张昊远</t>
+  </si>
+  <si>
+    <t>韩学增</t>
+  </si>
+  <si>
+    <t>徐志</t>
+  </si>
+  <si>
+    <t>余小梅</t>
+  </si>
+  <si>
+    <t>仝浩</t>
+  </si>
+  <si>
+    <t>孙兰兰</t>
+  </si>
+  <si>
+    <t>方春纳</t>
+  </si>
+  <si>
+    <t>陈继民</t>
+  </si>
+  <si>
+    <t>杨舒平</t>
   </si>
   <si>
     <t>董海涛</t>
   </si>
   <si>
-    <t>范景颢</t>
-  </si>
-  <si>
-    <t>张昊远</t>
+    <t>陈安杰</t>
+  </si>
+  <si>
+    <t>涂铭</t>
+  </si>
+  <si>
+    <t>郑晓晓</t>
+  </si>
+  <si>
+    <t>周青青</t>
+  </si>
+  <si>
+    <t>Administrator</t>
   </si>
   <si>
     <t>利罗成</t>
   </si>
   <si>
-    <t>韩学增</t>
-  </si>
-  <si>
-    <t>徐志</t>
-  </si>
-  <si>
-    <t>余小梅</t>
-  </si>
-  <si>
-    <t>程琳婧</t>
+    <t>叶春</t>
+  </si>
+  <si>
+    <t>张鹤飞</t>
+  </si>
+  <si>
+    <t>章磊</t>
+  </si>
+  <si>
+    <t>汪红华</t>
+  </si>
+  <si>
+    <t>杨冰</t>
+  </si>
+  <si>
+    <t>李忠慧</t>
+  </si>
+  <si>
+    <t>潘静静</t>
+  </si>
+  <si>
+    <t>赵连锋</t>
   </si>
   <si>
     <t>李诗雨</t>
   </si>
   <si>
-    <t>仝浩</t>
-  </si>
-  <si>
-    <t>涂铭</t>
-  </si>
-  <si>
-    <t>李忠慧</t>
-  </si>
-  <si>
-    <t>杨舒平</t>
-  </si>
-  <si>
-    <t>孙兰兰</t>
-  </si>
-  <si>
-    <t>潘静静</t>
-  </si>
-  <si>
-    <t>许长思</t>
-  </si>
-  <si>
-    <t>方春纳</t>
-  </si>
-  <si>
-    <t>林士伟</t>
-  </si>
-  <si>
-    <t>陈继民</t>
-  </si>
-  <si>
-    <t>孙悦</t>
-  </si>
-  <si>
-    <t>赵连锋</t>
-  </si>
-  <si>
-    <t>何寒馨</t>
-  </si>
-  <si>
-    <t>李淙</t>
-  </si>
-  <si>
-    <t>杨冰</t>
-  </si>
-  <si>
-    <t>叶春</t>
-  </si>
-  <si>
-    <t>章磊</t>
-  </si>
-  <si>
-    <t>陈安杰</t>
-  </si>
-  <si>
-    <t>张鹤飞</t>
-  </si>
-  <si>
-    <t>郑晓晓</t>
-  </si>
-  <si>
-    <t>汪红华</t>
-  </si>
-  <si>
-    <t>吴凯</t>
-  </si>
-  <si>
-    <t>陈曦</t>
+    <t>徐玉</t>
   </si>
   <si>
     <t>邓凤</t>
   </si>
   <si>
+    <t>高敏</t>
+  </si>
+  <si>
+    <t>徐婷</t>
+  </si>
+  <si>
+    <t>罗媛</t>
+  </si>
+  <si>
+    <t>郭小倩</t>
+  </si>
+  <si>
+    <t>董秀娟</t>
+  </si>
+  <si>
+    <t>樊富声</t>
+  </si>
+  <si>
+    <t>张资</t>
+  </si>
+  <si>
+    <t>司秀楠</t>
+  </si>
+  <si>
+    <t>张东红</t>
+  </si>
+  <si>
+    <t>裘文超</t>
+  </si>
+  <si>
+    <t>肖祥</t>
+  </si>
+  <si>
+    <t>阚迪</t>
+  </si>
+  <si>
+    <t>毛慧莉</t>
+  </si>
+  <si>
+    <t>王少川</t>
+  </si>
+  <si>
+    <t>刘娟</t>
+  </si>
+  <si>
+    <t>胡倩</t>
+  </si>
+  <si>
+    <t>冯洁</t>
+  </si>
+  <si>
+    <t>付言</t>
+  </si>
+  <si>
     <t>翟中艳</t>
   </si>
   <si>
-    <t>高敏</t>
-  </si>
-  <si>
-    <t>冯洁</t>
-  </si>
-  <si>
-    <t>徐婷</t>
-  </si>
-  <si>
-    <t>罗媛</t>
-  </si>
-  <si>
-    <t>郭小倩</t>
-  </si>
-  <si>
-    <t>付言</t>
-  </si>
-  <si>
-    <t>董秀娟</t>
-  </si>
-  <si>
     <t>张先龙</t>
   </si>
   <si>
-    <t>毛慧莉</t>
-  </si>
-  <si>
     <t>张朝阳</t>
   </si>
   <si>
-    <t>樊富声</t>
-  </si>
-  <si>
     <t>马晓涵</t>
   </si>
   <si>
-    <t>郭会趁</t>
-  </si>
-  <si>
-    <t>谢丹丹</t>
-  </si>
-  <si>
-    <t>张资</t>
-  </si>
-  <si>
-    <t>司秀楠</t>
-  </si>
-  <si>
-    <t>张东红</t>
-  </si>
-  <si>
-    <t>王詹妮</t>
-  </si>
-  <si>
-    <t>阚迪</t>
-  </si>
-  <si>
-    <t>裘文超</t>
-  </si>
-  <si>
-    <t>肖祥</t>
-  </si>
-  <si>
-    <t>王少川</t>
-  </si>
-  <si>
-    <t>刘娟</t>
-  </si>
-  <si>
-    <t>李颖</t>
+    <t>钟艳梅</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>语文</t>
   </si>
   <si>
     <t>物理</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>网络推广</t>
-  </si>
-  <si>
     <t>深圳推广</t>
   </si>
   <si>
+    <t>准效问卷</t>
+  </si>
+  <si>
+    <t>博君外呼</t>
+  </si>
+  <si>
+    <t>广州白云龙涛中学入校</t>
+  </si>
+  <si>
+    <t>数字营销渠道1-双师辅导</t>
+  </si>
+  <si>
+    <t>欣盛外呼</t>
+  </si>
+  <si>
+    <t>数字营销渠道1-388礼包</t>
+  </si>
+  <si>
+    <t>今日头条-知识点</t>
+  </si>
+  <si>
+    <t>越亿外呼</t>
+  </si>
+  <si>
+    <t>问卷星二级城市</t>
+  </si>
+  <si>
+    <t>步点外呼</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>保险广告一双师辅导1</t>
+  </si>
+  <si>
+    <t>向聚外呼</t>
+  </si>
+  <si>
+    <t>兑吧-双师辅导</t>
+  </si>
+  <si>
     <t>今日头条</t>
   </si>
   <si>
-    <t>准效问卷</t>
-  </si>
-  <si>
-    <t>博君外呼</t>
-  </si>
-  <si>
-    <t>微信朋友圈-知识点</t>
-  </si>
-  <si>
-    <t>远播网择校展-1</t>
-  </si>
-  <si>
-    <t>广州白云龙涛中学入校</t>
-  </si>
-  <si>
     <t>深圳地推-1</t>
   </si>
   <si>
-    <t>步点外呼</t>
-  </si>
-  <si>
     <t>标戈外呼</t>
   </si>
   <si>
-    <t>数字营销渠道1-双师辅导</t>
-  </si>
-  <si>
-    <t>向聚外呼</t>
-  </si>
-  <si>
-    <t>欣盛外呼</t>
-  </si>
-  <si>
-    <t>数字营销渠道1-388礼包</t>
-  </si>
-  <si>
-    <t>今日头条-知识点</t>
-  </si>
-  <si>
-    <t>服务号</t>
-  </si>
-  <si>
     <t>问卷星上海新库</t>
   </si>
   <si>
-    <t>越亿外呼</t>
-  </si>
-  <si>
-    <t>问卷星二级城市</t>
-  </si>
-  <si>
-    <t>保险广告一双师辅导1</t>
-  </si>
-  <si>
-    <t>兑吧-双师辅导</t>
-  </si>
-  <si>
     <t>上海入校-浦东区</t>
   </si>
   <si>
+    <t>到</t>
+  </si>
+  <si>
     <t>已预约</t>
   </si>
   <si>
     <t>未到</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>2017-11-22 19:03:33</t>
   </si>
   <si>
+    <t>2017-11-27 20:01:57</t>
+  </si>
+  <si>
+    <t>2017-11-27 20:06:57</t>
+  </si>
+  <si>
+    <t>2017-11-27 20:55:20</t>
+  </si>
+  <si>
+    <t>2017-11-27 19:11:12</t>
+  </si>
+  <si>
+    <t>2017-11-27 20:49:19</t>
+  </si>
+  <si>
+    <t>2017-11-27 18:17:17</t>
+  </si>
+  <si>
+    <t>2017-11-27 20:24:21</t>
+  </si>
+  <si>
+    <t>2017-11-27 20:44:13</t>
+  </si>
+  <si>
     <t>课后1：微信联系打电话沟通，重新预约在下周一同一时间再测一下/</t>
+  </si>
+  <si>
+    <t>课后1 准备考技校，没时间上课，不考虑/</t>
+  </si>
+  <si>
+    <t>课后1：孩子剩下的题目还没做完，说是因为要写作业 也是醉/</t>
+  </si>
+  <si>
+    <t>课后&lt;br /&gt;妈妈说自己和孩子还没吃饭的，约明天上午11点之前或晚上课后/</t>
+  </si>
+  <si>
+    <t>课后1 无人接/,课后2 拒接/</t>
+  </si>
+  <si>
+    <t>课后1：无人接听  消息没有回复  /</t>
+  </si>
+  <si>
+    <t>课后2：妈妈电话打不通，微信与QQ暂未通过好友申请，联系TMK确认/</t>
+  </si>
+  <si>
+    <t>课后1&lt;br /&gt;顺利上课！&lt;br /&gt;爸爸很关心孩子的学习&lt;br /&gt;晚上有事情。&lt;br /&gt;明天下午4：00联系课后，再跟小孩沟通。/</t>
+  </si>
+  <si>
+    <t>课后1，孩子现在在写作业，一个人在家，孩子还是比较喜欢的，约了时间和爸爸妈妈沟通。/</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2110,2120 +1909,2171 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>2063715</v>
+        <v>2064086</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2">
         <v>43066</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="N2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q2">
-        <v>1120165</v>
+        <v>1657711</v>
       </c>
       <c r="R2" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S2" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>2064086</v>
+        <v>2026640</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2">
         <v>43066</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="L3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" t="s">
         <v>269</v>
       </c>
-      <c r="M3" t="s">
-        <v>296</v>
-      </c>
       <c r="N3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q3">
-        <v>1657711</v>
+        <v>2002985</v>
       </c>
       <c r="R3" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S3" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
-        <v>2061352</v>
+        <v>2024615</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2">
         <v>43066</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="N4" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q4">
-        <v>1882684</v>
+        <v>2019279</v>
       </c>
       <c r="R4" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="S4" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>2026640</v>
+        <v>2074970</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H5" s="2">
         <v>43066</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M5" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q5">
-        <v>2002985</v>
+        <v>2019582</v>
       </c>
       <c r="R5" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S5" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>2067429</v>
+        <v>2070369</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2">
         <v>43066</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K6" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" t="s">
         <v>272</v>
-      </c>
-      <c r="M6" t="s">
-        <v>296</v>
-      </c>
-      <c r="N6" t="s">
-        <v>300</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q6">
-        <v>2014702</v>
+        <v>2024505</v>
       </c>
       <c r="R6" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S6" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
-        <v>2024615</v>
+        <v>2046087</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2">
         <v>43066</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="L7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q7">
-        <v>2019279</v>
+        <v>2035154</v>
       </c>
       <c r="R7" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="S7" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
-        <v>2074970</v>
+        <v>2071419</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H8" s="2">
         <v>43066</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="L8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N8" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q8">
-        <v>2019582</v>
+        <v>2042764</v>
       </c>
       <c r="R8" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
-        <v>2070369</v>
+        <v>2057818</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2">
         <v>43066</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="J9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="L9" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q9">
-        <v>2024505</v>
+        <v>2055074</v>
       </c>
       <c r="R9" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S9" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
-        <v>2033164</v>
+        <v>2056858</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H10" s="2">
         <v>43066</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L10" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="M10" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N10" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q10">
-        <v>2030223</v>
+        <v>2055184</v>
       </c>
       <c r="R10" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="S10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <v>2038072</v>
+        <v>2067356</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H11" s="2">
         <v>43066</v>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" t="s">
         <v>222</v>
       </c>
-      <c r="K11" t="s">
-        <v>245</v>
-      </c>
       <c r="L11" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="N11" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q11">
-        <v>2034874</v>
+        <v>2055318</v>
       </c>
       <c r="R11" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="S11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
-        <v>2046087</v>
+        <v>2059444</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2">
         <v>43066</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="L12" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N12" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q12">
-        <v>2035154</v>
+        <v>2055343</v>
       </c>
       <c r="R12" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S12" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13">
-        <v>2072090</v>
+        <v>2061597</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="H13" s="2">
         <v>43066</v>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="L13" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M13" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N13" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q13">
-        <v>2037638</v>
+        <v>2059666</v>
       </c>
       <c r="R13" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="S13" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14">
-        <v>2042612</v>
+        <v>2062719</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H14" s="2">
         <v>43066</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K14" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="L14" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="M14" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N14" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q14">
-        <v>2039136</v>
+        <v>2059834</v>
       </c>
       <c r="R14" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S14" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15">
-        <v>2069884</v>
+        <v>2062265</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H15" s="2">
         <v>43066</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="J15" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" t="s">
         <v>226</v>
       </c>
-      <c r="K15" t="s">
-        <v>240</v>
-      </c>
       <c r="L15" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="M15" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N15" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q15">
-        <v>2039284</v>
+        <v>2060054</v>
       </c>
       <c r="R15" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S15" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16">
-        <v>2056147</v>
+        <v>2064687</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H16" s="2">
         <v>43066</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="L16" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="M16" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N16" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q16">
-        <v>2042327</v>
+        <v>2060068</v>
       </c>
       <c r="R16" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="S16" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17">
-        <v>2071419</v>
+        <v>2065012</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H17" s="2">
         <v>43066</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" t="s">
         <v>224</v>
       </c>
-      <c r="K17" t="s">
-        <v>250</v>
-      </c>
       <c r="L17" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="M17" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="N17" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q17">
-        <v>2042764</v>
+        <v>2060072</v>
       </c>
       <c r="R17" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S17" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18">
-        <v>2074826</v>
+        <v>2062678</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="H18" s="2">
         <v>43066</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="N18" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q18">
-        <v>2048144</v>
+        <v>2060078</v>
       </c>
       <c r="R18" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="S18" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19">
-        <v>2068985</v>
+        <v>2062710</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H19" s="2">
         <v>43066</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="M19" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N19" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q19">
-        <v>2048711</v>
+        <v>2060163</v>
       </c>
       <c r="R19" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S19" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20">
-        <v>2056198</v>
+        <v>2072417</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H20" s="2">
         <v>43066</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N20" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q20">
-        <v>2055010</v>
+        <v>2069692</v>
       </c>
       <c r="R20" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S20" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21">
-        <v>2057818</v>
+        <v>2076274</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="H21" s="2">
         <v>43066</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="N21" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q21">
-        <v>2055074</v>
+        <v>2069728</v>
       </c>
       <c r="R21" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="S21" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22">
-        <v>2057777</v>
+        <v>2078545</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H22" s="2">
         <v>43066</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N22" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q22">
-        <v>2055136</v>
+        <v>2076425</v>
       </c>
       <c r="R22" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S22" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23">
-        <v>2056858</v>
+        <v>2079565</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H23" s="2">
         <v>43066</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N23" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q23">
-        <v>2055184</v>
+        <v>1482259</v>
       </c>
       <c r="R23" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S23" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24">
-        <v>2067356</v>
+        <v>2067429</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2">
         <v>43066</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q24">
-        <v>2055318</v>
+        <v>2014702</v>
       </c>
       <c r="R24" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S24" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25">
-        <v>2059444</v>
+        <v>2074687</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H25" s="2">
         <v>43066</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q25">
-        <v>2055343</v>
+        <v>2059668</v>
       </c>
       <c r="R25" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S25" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26">
-        <v>2058322</v>
+        <v>2062472</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="H26" s="2">
         <v>43066</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q26">
-        <v>2055345</v>
+        <v>2059946</v>
       </c>
       <c r="R26" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S26" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27">
-        <v>2061686</v>
+        <v>2068503</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H27" s="2">
         <v>43066</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q27">
-        <v>2057099</v>
+        <v>2060026</v>
       </c>
       <c r="R27" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S27" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28">
-        <v>2060811</v>
+        <v>2061169</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="H28" s="2">
         <v>43066</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q28">
-        <v>2059563</v>
+        <v>2060075</v>
       </c>
       <c r="R28" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S28" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29">
-        <v>2061597</v>
+        <v>2062772</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H29" s="2">
         <v>43066</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q29">
-        <v>2059666</v>
+        <v>2060186</v>
       </c>
       <c r="R29" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S29" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30">
-        <v>2074687</v>
+        <v>2064671</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H30" s="2">
         <v>43066</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q30">
-        <v>2059668</v>
+        <v>2061908</v>
       </c>
       <c r="R30" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S30" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31">
-        <v>2060920</v>
+        <v>2068316</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="H31" s="2">
         <v>43066</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q31">
-        <v>2059805</v>
+        <v>2065743</v>
       </c>
       <c r="R31" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S31" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
-        <v>2062719</v>
+        <v>2061352</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H32" s="2">
         <v>43066</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q32">
-        <v>2059834</v>
+        <v>1882684</v>
       </c>
       <c r="R32" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S32" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33">
-        <v>2065922</v>
+        <v>2072090</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H33" s="2">
         <v>43066</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q33">
-        <v>2059917</v>
+        <v>2037638</v>
       </c>
       <c r="R33" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S33" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34">
-        <v>2062048</v>
+        <v>2040420</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="H34" s="2">
         <v>43066</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q34">
-        <v>2059944</v>
+        <v>2039273</v>
       </c>
       <c r="R34" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S34" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35">
-        <v>2062472</v>
+        <v>2069884</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H35" s="2">
         <v>43066</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q35">
-        <v>2059946</v>
+        <v>2039284</v>
       </c>
       <c r="R35" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S35" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36">
-        <v>2068503</v>
+        <v>2056147</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H36" s="2">
         <v>43066</v>
       </c>
       <c r="I36" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q36">
-        <v>2060026</v>
+        <v>2042327</v>
       </c>
       <c r="R36" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S36" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37">
-        <v>2064749</v>
+        <v>2074826</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H37" s="2">
         <v>43066</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K37" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q37">
-        <v>2060028</v>
+        <v>2048144</v>
       </c>
       <c r="R37" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S37" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38">
-        <v>2064117</v>
+        <v>2061686</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H38" s="2">
         <v>43066</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J38" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K38" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" t="s">
         <v>256</v>
       </c>
-      <c r="L38" t="s">
-        <v>288</v>
-      </c>
       <c r="M38" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="N38" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q38">
-        <v>2060047</v>
+        <v>2057099</v>
       </c>
       <c r="R38" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S38" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39">
-        <v>2062265</v>
+        <v>2060920</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" t="s">
-        <v>194</v>
       </c>
       <c r="H39" s="2">
         <v>43066</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="J39" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q39">
-        <v>2060054</v>
+        <v>2059805</v>
       </c>
       <c r="R39" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S39" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40">
-        <v>2064687</v>
+        <v>2064749</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="H40" s="2">
         <v>43066</v>
       </c>
       <c r="I40" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M40" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="N40" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q40">
-        <v>2060068</v>
+        <v>2060028</v>
       </c>
       <c r="R40" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S40" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -4234,865 +4084,267 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="H41" s="2">
         <v>43066</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M41" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="N41" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q41">
         <v>2060070</v>
       </c>
       <c r="R41" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S41" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42">
-        <v>2065012</v>
+        <v>2062146</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H42" s="2">
         <v>43066</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="s">
         <v>269</v>
       </c>
-      <c r="M42" t="s">
-        <v>296</v>
-      </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q42">
-        <v>2060072</v>
+        <v>2060122</v>
       </c>
       <c r="R42" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S42" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43">
-        <v>2061169</v>
+        <v>2072491</v>
       </c>
       <c r="B43" t="s">
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="H43" s="2">
         <v>43066</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J43" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M43" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q43">
-        <v>2060075</v>
+        <v>2070795</v>
       </c>
       <c r="R43" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S43" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44">
-        <v>2062678</v>
+        <v>2075883</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" t="s">
-        <v>176</v>
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H44" s="2">
         <v>43066</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="J44" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L44" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N44" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q44">
-        <v>2060078</v>
+        <v>2070936</v>
       </c>
       <c r="R44" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S44" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45">
-        <v>2061798</v>
+        <v>2078747</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H45" s="2">
         <v>43066</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J45" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="K45" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="M45" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q45">
-        <v>2060093</v>
+        <v>2078701</v>
       </c>
       <c r="R45" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="S45" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46">
-        <v>2062146</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I46" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" t="s">
-        <v>220</v>
-      </c>
-      <c r="K46" t="s">
-        <v>237</v>
-      </c>
-      <c r="L46" t="s">
-        <v>276</v>
-      </c>
-      <c r="M46" t="s">
-        <v>297</v>
-      </c>
-      <c r="N46" t="s">
-        <v>316</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q46">
-        <v>2060122</v>
-      </c>
-      <c r="R46" t="s">
-        <v>324</v>
-      </c>
-      <c r="S46" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47">
-        <v>2062710</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I47" t="s">
-        <v>208</v>
-      </c>
-      <c r="J47" t="s">
-        <v>234</v>
-      </c>
-      <c r="K47" t="s">
-        <v>238</v>
-      </c>
-      <c r="L47" t="s">
-        <v>292</v>
-      </c>
-      <c r="M47" t="s">
-        <v>297</v>
-      </c>
-      <c r="N47" t="s">
-        <v>318</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q47">
-        <v>2060163</v>
-      </c>
-      <c r="R47" t="s">
-        <v>324</v>
-      </c>
-      <c r="S47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48">
-        <v>2062772</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" t="s">
-        <v>180</v>
-      </c>
-      <c r="G48" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J48" t="s">
-        <v>235</v>
-      </c>
-      <c r="K48" t="s">
-        <v>242</v>
-      </c>
-      <c r="L48" t="s">
-        <v>291</v>
-      </c>
-      <c r="M48" t="s">
-        <v>295</v>
-      </c>
-      <c r="N48" t="s">
-        <v>319</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q48">
-        <v>2060186</v>
-      </c>
-      <c r="R48" t="s">
-        <v>324</v>
-      </c>
-      <c r="S48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49">
-        <v>2064671</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>181</v>
-      </c>
-      <c r="G49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I49" t="s">
-        <v>209</v>
-      </c>
-      <c r="J49" t="s">
-        <v>226</v>
-      </c>
-      <c r="K49" t="s">
-        <v>266</v>
-      </c>
-      <c r="L49" t="s">
-        <v>269</v>
-      </c>
-      <c r="M49" t="s">
-        <v>296</v>
-      </c>
-      <c r="N49" t="s">
-        <v>311</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q49">
-        <v>2061908</v>
-      </c>
-      <c r="R49" t="s">
-        <v>324</v>
-      </c>
-      <c r="S49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50">
-        <v>2068316</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I50" t="s">
-        <v>207</v>
-      </c>
-      <c r="J50" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" t="s">
-        <v>267</v>
-      </c>
-      <c r="L50" t="s">
-        <v>286</v>
-      </c>
-      <c r="M50" t="s">
-        <v>298</v>
-      </c>
-      <c r="N50" t="s">
-        <v>320</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q50">
-        <v>2065743</v>
-      </c>
-      <c r="R50" t="s">
-        <v>324</v>
-      </c>
-      <c r="S50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51">
-        <v>2072417</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" t="s">
-        <v>194</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" t="s">
-        <v>231</v>
-      </c>
-      <c r="K51" t="s">
-        <v>247</v>
-      </c>
-      <c r="L51" t="s">
-        <v>293</v>
-      </c>
-      <c r="M51" t="s">
-        <v>298</v>
-      </c>
-      <c r="N51" t="s">
-        <v>317</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q51">
-        <v>2069692</v>
-      </c>
-      <c r="R51" t="s">
-        <v>324</v>
-      </c>
-      <c r="S51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52">
-        <v>2076274</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" t="s">
-        <v>198</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I52" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" t="s">
-        <v>234</v>
-      </c>
-      <c r="K52" t="s">
-        <v>268</v>
-      </c>
-      <c r="L52" t="s">
-        <v>290</v>
-      </c>
-      <c r="M52" t="s">
-        <v>297</v>
-      </c>
-      <c r="N52" t="s">
-        <v>317</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q52">
-        <v>2069728</v>
-      </c>
-      <c r="R52" t="s">
-        <v>324</v>
-      </c>
-      <c r="S52" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53">
-        <v>2072491</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" t="s">
-        <v>194</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I53" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" t="s">
-        <v>232</v>
-      </c>
-      <c r="K53" t="s">
-        <v>243</v>
-      </c>
-      <c r="L53" t="s">
-        <v>276</v>
-      </c>
-      <c r="M53" t="s">
-        <v>298</v>
-      </c>
-      <c r="N53" t="s">
-        <v>321</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q53">
-        <v>2070795</v>
-      </c>
-      <c r="R53" t="s">
-        <v>324</v>
-      </c>
-      <c r="S53" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54">
-        <v>2073873</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" t="s">
-        <v>191</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I54" t="s">
-        <v>212</v>
-      </c>
-      <c r="J54" t="s">
-        <v>223</v>
-      </c>
-      <c r="K54" t="s">
-        <v>266</v>
-      </c>
-      <c r="L54" t="s">
-        <v>294</v>
-      </c>
-      <c r="M54" t="s">
-        <v>297</v>
-      </c>
-      <c r="N54" t="s">
-        <v>317</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q54">
-        <v>2070862</v>
-      </c>
-      <c r="R54" t="s">
-        <v>324</v>
-      </c>
-      <c r="S54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55">
-        <v>2075883</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I55" t="s">
-        <v>208</v>
-      </c>
-      <c r="J55" t="s">
-        <v>219</v>
-      </c>
-      <c r="K55" t="s">
-        <v>245</v>
-      </c>
-      <c r="L55" t="s">
-        <v>245</v>
-      </c>
-      <c r="M55" t="s">
-        <v>296</v>
-      </c>
-      <c r="N55" t="s">
-        <v>317</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q55">
-        <v>2070936</v>
-      </c>
-      <c r="R55" t="s">
-        <v>324</v>
-      </c>
-      <c r="S55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56">
-        <v>2040420</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56" t="s">
-        <v>191</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43066</v>
-      </c>
-      <c r="I56" t="s">
-        <v>210</v>
-      </c>
-      <c r="J56" t="s">
-        <v>236</v>
-      </c>
-      <c r="K56" t="s">
-        <v>248</v>
-      </c>
-      <c r="L56" t="s">
-        <v>276</v>
-      </c>
-      <c r="M56" t="s">
-        <v>297</v>
-      </c>
-      <c r="N56" t="s">
-        <v>302</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q56">
-        <v>2039273</v>
-      </c>
-      <c r="R56" t="s">
-        <v>324</v>
-      </c>
-      <c r="S56" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
